--- a/experiments/programs/SeeDB_python/DiViz_airbnb/neighbourhood='Manhattan'.xlsx
+++ b/experiments/programs/SeeDB_python/DiViz_airbnb/neighbourhood='Manhattan'.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.43444257757324839</v>
+        <v>0.46125965385188411</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>0.1720050805776992</v>
+        <v>0.17650348917363121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>0.16475175081732241</v>
+        <v>0.16586840448085979</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.15206316877878939</v>
+        <v>0.15812655143109419</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>0.13691117346691489</v>
+        <v>0.13690883275877391</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>0.1323762325253853</v>
+        <v>0.1323715121629416</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>0.13120431614168829</v>
+        <v>0.1312068865157234</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>0.1174812308782914</v>
+        <v>0.11747580873334899</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>0.1168670954252288</v>
+        <v>0.1169297340348983</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>0.1154804821578172</v>
+        <v>0.11546990160573629</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,35 +654,35 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <v>0.112848049219168</v>
+        <v>0.11294464072590001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>0.10839631056169979</v>
+        <v>0.1102228301242768</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>0.1060357766946986</v>
+        <v>0.1083854215234004</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="D19">
-        <v>8.622408618313436E-2</v>
+        <v>8.6160824674101674E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="D20">
-        <v>8.4935182618799246E-2</v>
+        <v>8.4872465027004032E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>12</v>
       </c>
       <c r="D21">
-        <v>7.7596464471023197E-2</v>
+        <v>7.7638588852357124E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="D22">
-        <v>7.0329364369505556E-2</v>
+        <v>7.2098318752407742E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="D23">
-        <v>6.7035386250304183E-2</v>
+        <v>6.6935055885867442E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>4.2271728778398111E-2</v>
+        <v>4.2267933562189643E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <v>1.545381733503238E-2</v>
+        <v>1.551863742923161E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <v>1.251366366862614E-2</v>
+        <v>1.25224602008272E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
